--- a/xlsx/美屬維爾京群島_intext.xlsx
+++ b/xlsx/美屬維爾京群島_intext.xlsx
@@ -23,13 +23,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B%E6%97%97%E5%B8%9C</t>
-  </si>
-  <si>
-    <t>美属维尔京群岛旗帜</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美屬維爾京群島</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6%E6%97%97%E5%B9%9F</t>
+  </si>
+  <si>
+    <t>美屬維京群島旗幟</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_1980年夏季奥林匹克运动会_美屬維爾京群島</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%98%BF%E9%A9%AC%E5%88%A9%E4%BA%9A</t>
@@ -2004,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
